--- a/app/data.xlsx
+++ b/app/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,54 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
